--- a/data/input/IFS Cloud Commodity Groups.xlsx
+++ b/data/input/IFS Cloud Commodity Groups.xlsx
@@ -3967,10 +3967,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F7188DBF54E2A44860669BDF5594224" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27a66b8daae39da6753745b69214ebd8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28cf399f-4fb4-4244-a8f8-d731515ce28b" xmlns:ns3="bc2b4c79-9e4f-46e6-b513-a54784642b7a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d85789d884e75578a082a5d22d49dba" ns2:_="" ns3:_="">
-    <xsd:import namespace="28cf399f-4fb4-4244-a8f8-d731515ce28b"/>
-    <xsd:import namespace="bc2b4c79-9e4f-46e6-b513-a54784642b7a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB14DAA3CC024F49A081857B4C9CD92A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="970c494613c9de11ff0ed973b723722e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="265cb39c-7109-435c-af5d-13dc21a2db6b" xmlns:ns3="62b85a0e-09bb-4b0f-bd28-e34020cdc070" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a896a53711a7280dbf4746c89d8ce56" ns2:_="" ns3:_="">
+    <xsd:import namespace="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
+    <xsd:import namespace="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3979,14 +3979,23 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:Archive" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3994,7 +4003,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="28cf399f-4fb4-4244-a8f8-d731515ce28b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="265cb39c-7109-435c-af5d-13dc21a2db6b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -4007,41 +4016,87 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="df3d1728-64fa-4f01-bb7d-5585de3a980b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Archive" ma:index="26" nillable="true" ma:displayName="Archive" ma:default="0" ma:description="Folder to be backed up, archived and removed from SharePoint" ma:format="Dropdown" ma:internalName="Archive">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc2b4c79-9e4f-46e6-b513-a54784642b7a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62b85a0e-09bb-4b0f-bd28-e34020cdc070" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4060,12 +4115,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{744b13c9-2708-4b8b-a658-00962d7928c2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="62b85a0e-09bb-4b0f-bd28-e34020cdc070">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4169,7 +4235,13 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
+    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -4182,22 +4254,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE412798-C170-49D9-BCC0-AECC7BA604D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="28cf399f-4fb4-4244-a8f8-d731515ce28b"/>
-    <ds:schemaRef ds:uri="bc2b4c79-9e4f-46e6-b513-a54784642b7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE8051E-BAFB-4F2B-9FC4-48DEF7DBE85D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/IFS Cloud Commodity Groups.xlsx
+++ b/data/input/IFS Cloud Commodity Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzhuw\OneDrive\Desktop\10. Application Development\Diverzify\diverzify_freight_analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A867D-324C-4103-ACB7-1F1A71466ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838CBA03-763D-41AB-B2B9-761D5C80A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,6 +1081,12 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1098,12 +1104,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1118,11 +1118,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}" name="Table1" displayName="Table1" ref="A1:D172" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}" name="Table1" displayName="Table1" ref="A1:D172" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:D172" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DDE2A2EE-689D-488D-9535-79EF57C17C40}" name="Commodity Group" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BA1A9CC7-52F4-4CAB-A40A-C443B0302442}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DDE2A2EE-689D-488D-9535-79EF57C17C40}" name="Commodity Group" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BA1A9CC7-52F4-4CAB-A40A-C443B0302442}" name="Description" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{A3C5A72E-6828-413A-9C5D-FBA133F38C3A}" name="Old/New"/>
     <tableColumn id="4" xr3:uid="{95E1A096-CAC3-456E-B933-1135A5868BDC}" name="Priority"/>
   </tableColumns>
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,6 +3967,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
+    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB14DAA3CC024F49A081857B4C9CD92A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="970c494613c9de11ff0ed973b723722e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="265cb39c-7109-435c-af5d-13dc21a2db6b" xmlns:ns3="62b85a0e-09bb-4b0f-bd28-e34020cdc070" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a896a53711a7280dbf4746c89d8ce56" ns2:_="" ns3:_="">
     <xsd:import namespace="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
@@ -4233,18 +4245,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
-    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B94408-8787-4A72-912D-43B8D76E4179}">
   <ds:schemaRefs>
@@ -4254,14 +4254,31 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE8051E-BAFB-4F2B-9FC4-48DEF7DBE85D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A4A9B6-E6B8-436A-87CA-CAFC781DAE1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
+    <ds:schemaRef ds:uri="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE8051E-BAFB-4F2B-9FC4-48DEF7DBE85D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
+    <ds:schemaRef ds:uri="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input/IFS Cloud Commodity Groups.xlsx
+++ b/data/input/IFS Cloud Commodity Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzhuw\OneDrive\Desktop\10. Application Development\Diverzify\diverzify_freight_analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838CBA03-763D-41AB-B2B9-761D5C80A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B2C9B-8176-401A-9057-E3C40BCD9FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodity Groups" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,26 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}" name="Table1" displayName="Table1" ref="A1:D172" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D172" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}"/>
+  <autoFilter ref="A1:D172" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1040"/>
+        <filter val="1140"/>
+        <filter val="140"/>
+        <filter val="240"/>
+        <filter val="340"/>
+        <filter val="40"/>
+        <filter val="400"/>
+        <filter val="405"/>
+        <filter val="440"/>
+        <filter val="640"/>
+        <filter val="740"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D172">
+    <sortCondition ref="B1:B172"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DDE2A2EE-689D-488D-9535-79EF57C17C40}" name="Commodity Group" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BA1A9CC7-52F4-4CAB-A40A-C443B0302442}" name="Description" dataDxfId="0"/>
@@ -1450,7 +1469,7 @@
   <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,180 +1493,180 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>298</v>
@@ -1656,110 +1675,110 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>298</v>
@@ -1768,12 +1787,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>298</v>
@@ -1782,40 +1801,40 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>171</v>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>298</v>
@@ -1825,11 +1844,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>298</v>
@@ -1838,12 +1857,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>298</v>
@@ -1852,12 +1871,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>298</v>
@@ -1866,40 +1885,40 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D30" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D31" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
         <v>298</v>
@@ -1908,82 +1927,82 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D34" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D35" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D37" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
         <v>298</v>
@@ -1994,10 +2013,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
         <v>298</v>
@@ -2006,26 +2025,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>298</v>
@@ -2034,488 +2053,488 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D42" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D43" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>127</v>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D44" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
-        <v>298</v>
-      </c>
-      <c r="D45" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="C56" t="s">
+        <v>298</v>
+      </c>
+      <c r="D56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C46" t="s">
-        <v>298</v>
-      </c>
-      <c r="D46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C50" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>298</v>
-      </c>
-      <c r="D51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C52" t="s">
-        <v>298</v>
-      </c>
-      <c r="D52" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C75" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" t="s">
-        <v>298</v>
-      </c>
-      <c r="D55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" t="s">
-        <v>298</v>
-      </c>
-      <c r="D56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" t="s">
-        <v>298</v>
-      </c>
-      <c r="D58" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>298</v>
-      </c>
-      <c r="D61" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" t="s">
-        <v>298</v>
-      </c>
-      <c r="D62" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" t="s">
-        <v>298</v>
-      </c>
-      <c r="D63" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>298</v>
-      </c>
-      <c r="D64" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" t="s">
-        <v>298</v>
-      </c>
-      <c r="D66" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C74" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C76" t="s">
         <v>298</v>
@@ -2526,10 +2545,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
         <v>298</v>
@@ -2538,26 +2557,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D78" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
         <v>298</v>
@@ -2568,10 +2587,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>298</v>
@@ -2580,26 +2599,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D81" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
         <v>298</v>
@@ -2608,27 +2627,27 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C83" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -2636,26 +2655,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D85" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
         <v>299</v>
@@ -2664,12 +2683,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>135</v>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C87" t="s">
         <v>299</v>
@@ -2678,26 +2697,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>7</v>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>26</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>299</v>
@@ -2706,40 +2725,40 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>216</v>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
         <v>299</v>
@@ -2748,12 +2767,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
         <v>299</v>
@@ -2762,26 +2781,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
         <v>299</v>
@@ -2790,12 +2809,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C96" t="s">
         <v>299</v>
@@ -2804,26 +2823,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>11</v>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D97" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
         <v>299</v>
@@ -2832,12 +2851,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
         <v>299</v>
@@ -2846,26 +2865,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D100" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
         <v>299</v>
@@ -2874,12 +2893,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>273</v>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>299</v>
@@ -2890,24 +2909,24 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D103" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
         <v>299</v>
@@ -2916,12 +2935,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>78</v>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C105" t="s">
         <v>299</v>
@@ -2930,12 +2949,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>54</v>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C106" t="s">
         <v>299</v>
@@ -2946,879 +2965,879 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>298</v>
+      </c>
+      <c r="D109" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" t="s">
+        <v>298</v>
+      </c>
+      <c r="D111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" t="s">
+        <v>298</v>
+      </c>
+      <c r="D112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>299</v>
+      </c>
+      <c r="D114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" t="s">
+        <v>298</v>
+      </c>
+      <c r="D117" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" t="s">
+        <v>298</v>
+      </c>
+      <c r="D122" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" t="s">
+        <v>299</v>
+      </c>
+      <c r="D123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" t="s">
+        <v>298</v>
+      </c>
+      <c r="D126" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" t="s">
+        <v>298</v>
+      </c>
+      <c r="D127" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C129" t="s">
+        <v>299</v>
+      </c>
+      <c r="D129" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" t="s">
+        <v>299</v>
+      </c>
+      <c r="D131" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" t="s">
+        <v>299</v>
+      </c>
+      <c r="D132" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" t="s">
+        <v>298</v>
+      </c>
+      <c r="D133" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C107" t="s">
-        <v>299</v>
-      </c>
-      <c r="D107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" t="s">
-        <v>299</v>
-      </c>
-      <c r="D108" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="C134" t="s">
+        <v>299</v>
+      </c>
+      <c r="D134" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C109" t="s">
-        <v>299</v>
-      </c>
-      <c r="D109" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="C135" t="s">
+        <v>299</v>
+      </c>
+      <c r="D135" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136" t="s">
+        <v>299</v>
+      </c>
+      <c r="D136" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" t="s">
+        <v>299</v>
+      </c>
+      <c r="D137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" t="s">
+        <v>299</v>
+      </c>
+      <c r="D140" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" t="s">
+        <v>299</v>
+      </c>
+      <c r="D141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C143" t="s">
+        <v>299</v>
+      </c>
+      <c r="D143" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" t="s">
+        <v>298</v>
+      </c>
+      <c r="D144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C110" t="s">
-        <v>299</v>
-      </c>
-      <c r="D110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="C145" t="s">
+        <v>299</v>
+      </c>
+      <c r="D145" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C111" t="s">
-        <v>299</v>
-      </c>
-      <c r="D111" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" t="s">
-        <v>299</v>
-      </c>
-      <c r="D112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="C147" t="s">
+        <v>299</v>
+      </c>
+      <c r="D147" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>298</v>
+      </c>
+      <c r="D150" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C113" t="s">
-        <v>299</v>
-      </c>
-      <c r="D113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="C151" t="s">
+        <v>299</v>
+      </c>
+      <c r="D151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>298</v>
+      </c>
+      <c r="D153" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="C155" t="s">
+        <v>299</v>
+      </c>
+      <c r="D155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C156" t="s">
+        <v>299</v>
+      </c>
+      <c r="D156" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" t="s">
+        <v>299</v>
+      </c>
+      <c r="D157" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" t="s">
+        <v>298</v>
+      </c>
+      <c r="D158" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C115" t="s">
-        <v>299</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C159" t="s">
+        <v>299</v>
+      </c>
+      <c r="D159" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C116" t="s">
-        <v>299</v>
-      </c>
-      <c r="D116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" t="s">
-        <v>299</v>
-      </c>
-      <c r="D117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C118" t="s">
-        <v>299</v>
-      </c>
-      <c r="D118" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" t="s">
-        <v>299</v>
-      </c>
-      <c r="D119" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C120" t="s">
-        <v>299</v>
-      </c>
-      <c r="D120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>299</v>
-      </c>
-      <c r="D121" t="s">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s">
+        <v>299</v>
+      </c>
+      <c r="D160" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" t="s">
-        <v>299</v>
-      </c>
-      <c r="D122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>299</v>
-      </c>
-      <c r="D123" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C124" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C125" t="s">
-        <v>299</v>
-      </c>
-      <c r="D125" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C126" t="s">
-        <v>299</v>
-      </c>
-      <c r="D126" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C127" t="s">
-        <v>299</v>
-      </c>
-      <c r="D127" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C128" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" t="s">
-        <v>299</v>
-      </c>
-      <c r="D129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C130" t="s">
-        <v>299</v>
-      </c>
-      <c r="D130" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131" t="s">
-        <v>299</v>
-      </c>
-      <c r="D131" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C132" t="s">
-        <v>299</v>
-      </c>
-      <c r="D132" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C133" t="s">
-        <v>299</v>
-      </c>
-      <c r="D133" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C134" t="s">
-        <v>299</v>
-      </c>
-      <c r="D134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" t="s">
-        <v>299</v>
-      </c>
-      <c r="D135" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C136" t="s">
-        <v>299</v>
-      </c>
-      <c r="D136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C137" t="s">
-        <v>299</v>
-      </c>
-      <c r="D137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C138" t="s">
-        <v>299</v>
-      </c>
-      <c r="D138" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C139" t="s">
-        <v>299</v>
-      </c>
-      <c r="D139" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C140" t="s">
-        <v>299</v>
-      </c>
-      <c r="D140" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C141" t="s">
-        <v>299</v>
-      </c>
-      <c r="D141" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" t="s">
-        <v>299</v>
-      </c>
-      <c r="D142" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C143" t="s">
-        <v>299</v>
-      </c>
-      <c r="D143" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C144" t="s">
-        <v>299</v>
-      </c>
-      <c r="D144" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" t="s">
-        <v>299</v>
-      </c>
-      <c r="D145" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C147" t="s">
-        <v>299</v>
-      </c>
-      <c r="D147" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C149" t="s">
-        <v>299</v>
-      </c>
-      <c r="D149" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C150" t="s">
-        <v>299</v>
-      </c>
-      <c r="D150" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C151" t="s">
-        <v>299</v>
-      </c>
-      <c r="D151" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C152" t="s">
-        <v>299</v>
-      </c>
-      <c r="D152" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C153" t="s">
-        <v>299</v>
-      </c>
-      <c r="D153" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C154" t="s">
-        <v>299</v>
-      </c>
-      <c r="D154" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C155" t="s">
-        <v>299</v>
-      </c>
-      <c r="D155" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C156" t="s">
-        <v>299</v>
-      </c>
-      <c r="D156" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" t="s">
-        <v>299</v>
-      </c>
-      <c r="D157" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C158" t="s">
-        <v>299</v>
-      </c>
-      <c r="D158" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" t="s">
-        <v>299</v>
-      </c>
-      <c r="D159" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C160" t="s">
-        <v>299</v>
-      </c>
-      <c r="D160" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>294</v>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D161" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D162" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>298</v>
+      </c>
+      <c r="D163" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C163" t="s">
-        <v>299</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="C164" t="s">
+        <v>299</v>
+      </c>
+      <c r="D164" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C165" t="s">
+        <v>298</v>
+      </c>
+      <c r="D165" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C164" t="s">
-        <v>299</v>
-      </c>
-      <c r="D164" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="C166" t="s">
+        <v>299</v>
+      </c>
+      <c r="D166" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" t="s">
+        <v>298</v>
+      </c>
+      <c r="D167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C168" t="s">
+        <v>299</v>
+      </c>
+      <c r="D168" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C165" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C166" t="s">
-        <v>299</v>
-      </c>
-      <c r="D166" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C167" t="s">
-        <v>299</v>
-      </c>
-      <c r="D167" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C168" t="s">
-        <v>299</v>
-      </c>
-      <c r="D168" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C169" t="s">
         <v>299</v>
       </c>
@@ -3826,43 +3845,43 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="C170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D170" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D171" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C172" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D172" t="s">
         <v>310</v>
@@ -3958,27 +3977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
-    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB14DAA3CC024F49A081857B4C9CD92A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="970c494613c9de11ff0ed973b723722e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="265cb39c-7109-435c-af5d-13dc21a2db6b" xmlns:ns3="62b85a0e-09bb-4b0f-bd28-e34020cdc070" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a896a53711a7280dbf4746c89d8ce56" ns2:_="" ns3:_="">
     <xsd:import namespace="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
@@ -4245,10 +4243,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
+    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B94408-8787-4A72-912D-43B8D76E4179}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE8051E-BAFB-4F2B-9FC4-48DEF7DBE85D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
+    <ds:schemaRef ds:uri="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4265,20 +4295,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE8051E-BAFB-4F2B-9FC4-48DEF7DBE85D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B94408-8787-4A72-912D-43B8D76E4179}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
-    <ds:schemaRef ds:uri="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input/IFS Cloud Commodity Groups.xlsx
+++ b/data/input/IFS Cloud Commodity Groups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzhuw\OneDrive\Desktop\10. Application Development\Diverzify\diverzify_freight_analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B2C9B-8176-401A-9057-E3C40BCD9FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1280C5D-E438-44DB-860B-AFB785B6FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Commodity Group</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>291</t>
   </si>
   <si>
@@ -928,12 +925,6 @@
   </si>
   <si>
     <t>Thinset</t>
-  </si>
-  <si>
-    <t>Old Commodity</t>
-  </si>
-  <si>
-    <t>New Commodity</t>
   </si>
   <si>
     <r>
@@ -967,19 +958,28 @@
     <t xml:space="preserve">7.  Old Commodities are the ones we are slowly replacing </t>
   </si>
   <si>
-    <t>Old/New</t>
-  </si>
-  <si>
     <t>Commodity Desc</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Commodity Code</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Priority Commodity</t>
   </si>
 </sst>
 </file>
@@ -1119,31 +1119,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}" name="Table1" displayName="Table1" ref="A1:D172" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D172" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1040"/>
-        <filter val="1140"/>
-        <filter val="140"/>
-        <filter val="240"/>
-        <filter val="340"/>
-        <filter val="40"/>
-        <filter val="400"/>
-        <filter val="405"/>
-        <filter val="440"/>
-        <filter val="640"/>
-        <filter val="740"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D172" xr:uid="{BABEB382-4F36-41B7-9ACA-F20FBAC02394}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D172">
     <sortCondition ref="B1:B172"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DDE2A2EE-689D-488D-9535-79EF57C17C40}" name="Commodity Group" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BA1A9CC7-52F4-4CAB-A40A-C443B0302442}" name="Description" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A3C5A72E-6828-413A-9C5D-FBA133F38C3A}" name="Old/New"/>
-    <tableColumn id="4" xr3:uid="{95E1A096-CAC3-456E-B933-1135A5868BDC}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{BA1A9CC7-52F4-4CAB-A40A-C443B0302442}" name="Commodity Description" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A3C5A72E-6828-413A-9C5D-FBA133F38C3A}" name="Commodity Code"/>
+    <tableColumn id="4" xr3:uid="{95E1A096-CAC3-456E-B933-1135A5868BDC}" name="Priority Commodity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,7 +1453,7 @@
   <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,2407 +1468,2407 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C29" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C41" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D50" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C51" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C54" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>306</v>
+      </c>
+      <c r="D69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>306</v>
+      </c>
+      <c r="D71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C56" t="s">
-        <v>298</v>
-      </c>
-      <c r="D56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" t="s">
-        <v>298</v>
-      </c>
-      <c r="D58" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>298</v>
-      </c>
-      <c r="D63" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>298</v>
-      </c>
-      <c r="D64" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" t="s">
-        <v>299</v>
-      </c>
-      <c r="D66" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>299</v>
-      </c>
-      <c r="D69" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C71" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C73" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C75" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C76" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D76" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C77" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D77" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="C78" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D79" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C81" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D81" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C84" t="s">
-        <v>298</v>
-      </c>
-      <c r="D84" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>298</v>
-      </c>
-      <c r="D85" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" t="s">
-        <v>299</v>
-      </c>
-      <c r="D87" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" t="s">
-        <v>298</v>
-      </c>
-      <c r="D88" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>307</v>
+      </c>
+      <c r="D90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C89" t="s">
-        <v>299</v>
-      </c>
-      <c r="D89" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" t="s">
-        <v>298</v>
-      </c>
-      <c r="D90" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C92" t="s">
-        <v>299</v>
-      </c>
-      <c r="D92" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
-      <c r="D93" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" t="s">
-        <v>298</v>
-      </c>
-      <c r="D94" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" t="s">
-        <v>299</v>
-      </c>
-      <c r="D95" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" t="s">
-        <v>298</v>
-      </c>
-      <c r="D97" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" t="s">
-        <v>299</v>
-      </c>
-      <c r="D98" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C99" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C100" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D100" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C101" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C103" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C104" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D104" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C105" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D106" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" t="s">
+        <v>307</v>
+      </c>
+      <c r="D110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" t="s">
+        <v>307</v>
+      </c>
+      <c r="D111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="s">
+        <v>307</v>
+      </c>
+      <c r="D112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>307</v>
+      </c>
+      <c r="D115" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" t="s">
+        <v>307</v>
+      </c>
+      <c r="D116" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" t="s">
+        <v>307</v>
+      </c>
+      <c r="D117" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" t="s">
+        <v>307</v>
+      </c>
+      <c r="D118" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" t="s">
+        <v>307</v>
+      </c>
+      <c r="D119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" t="s">
+        <v>307</v>
+      </c>
+      <c r="D120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" t="s">
+        <v>307</v>
+      </c>
+      <c r="D121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" t="s">
+        <v>307</v>
+      </c>
+      <c r="D122" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" t="s">
+        <v>306</v>
+      </c>
+      <c r="D124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C108" t="s">
-        <v>299</v>
-      </c>
-      <c r="D108" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" t="s">
-        <v>298</v>
-      </c>
-      <c r="D109" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" t="s">
-        <v>298</v>
-      </c>
-      <c r="D110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" t="s">
-        <v>298</v>
-      </c>
-      <c r="D111" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" t="s">
-        <v>298</v>
-      </c>
-      <c r="D112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" t="s">
-        <v>299</v>
-      </c>
-      <c r="D113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>298</v>
-      </c>
-      <c r="D115" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" t="s">
-        <v>298</v>
-      </c>
-      <c r="D116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" t="s">
-        <v>298</v>
-      </c>
-      <c r="D117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C118" t="s">
-        <v>298</v>
-      </c>
-      <c r="D118" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" t="s">
-        <v>298</v>
-      </c>
-      <c r="D119" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C120" t="s">
-        <v>298</v>
-      </c>
-      <c r="D120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D121" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122" t="s">
-        <v>298</v>
-      </c>
-      <c r="D122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" t="s">
-        <v>299</v>
-      </c>
-      <c r="D123" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" t="s">
-        <v>298</v>
-      </c>
-      <c r="D126" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="B128" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D128" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C129" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D130" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C131" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D131" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D132" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C133" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D133" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" t="s">
+        <v>306</v>
+      </c>
+      <c r="D134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" t="s">
+        <v>306</v>
+      </c>
+      <c r="D135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" t="s">
+        <v>306</v>
+      </c>
+      <c r="D136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" t="s">
+        <v>306</v>
+      </c>
+      <c r="D137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
+        <v>307</v>
+      </c>
+      <c r="D139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" t="s">
-        <v>299</v>
-      </c>
-      <c r="D134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C135" t="s">
-        <v>299</v>
-      </c>
-      <c r="D135" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" t="s">
+        <v>306</v>
+      </c>
+      <c r="D141" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" t="s">
+        <v>306</v>
+      </c>
+      <c r="D142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" t="s">
+        <v>306</v>
+      </c>
+      <c r="D143" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" t="s">
+        <v>307</v>
+      </c>
+      <c r="D144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" t="s">
+        <v>306</v>
+      </c>
+      <c r="D145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C148" t="s">
+        <v>306</v>
+      </c>
+      <c r="D148" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" t="s">
+        <v>306</v>
+      </c>
+      <c r="D149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C136" t="s">
-        <v>299</v>
-      </c>
-      <c r="D136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" t="s">
-        <v>299</v>
-      </c>
-      <c r="D137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C138" t="s">
-        <v>298</v>
-      </c>
-      <c r="D138" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C139" t="s">
-        <v>298</v>
-      </c>
-      <c r="D139" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C140" t="s">
-        <v>299</v>
-      </c>
-      <c r="D140" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C141" t="s">
-        <v>299</v>
-      </c>
-      <c r="D141" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C142" t="s">
-        <v>299</v>
-      </c>
-      <c r="D142" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C143" t="s">
-        <v>299</v>
-      </c>
-      <c r="D143" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C144" t="s">
-        <v>298</v>
-      </c>
-      <c r="D144" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C145" t="s">
-        <v>299</v>
-      </c>
-      <c r="D145" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C146" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>306</v>
+      </c>
+      <c r="D152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>307</v>
+      </c>
+      <c r="D153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" t="s">
+        <v>307</v>
+      </c>
+      <c r="D154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C147" t="s">
-        <v>299</v>
-      </c>
-      <c r="D147" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" t="s">
-        <v>299</v>
-      </c>
-      <c r="D149" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C155" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" t="s">
+        <v>306</v>
+      </c>
+      <c r="D156" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C157" t="s">
+        <v>306</v>
+      </c>
+      <c r="D157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" t="s">
+        <v>307</v>
+      </c>
+      <c r="D158" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C150" t="s">
-        <v>298</v>
-      </c>
-      <c r="D150" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" t="s">
-        <v>299</v>
-      </c>
-      <c r="D151" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" t="s">
-        <v>299</v>
-      </c>
-      <c r="D152" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" t="s">
-        <v>298</v>
-      </c>
-      <c r="D153" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C154" t="s">
-        <v>298</v>
-      </c>
-      <c r="D154" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C155" t="s">
-        <v>299</v>
-      </c>
-      <c r="D155" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C156" t="s">
-        <v>299</v>
-      </c>
-      <c r="D156" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C157" t="s">
-        <v>299</v>
-      </c>
-      <c r="D157" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" t="s">
-        <v>298</v>
-      </c>
-      <c r="D158" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C159" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D159" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C160" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C161" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D161" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C162" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D162" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C163" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D163" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C164" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D164" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C165" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D165" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C166" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D166" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C167" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D167" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C168" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C169" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D169" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C170" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D170" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C171" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D171" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="C172" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D172" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3919,56 +3903,56 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3977,6 +3961,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
+    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB14DAA3CC024F49A081857B4C9CD92A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="970c494613c9de11ff0ed973b723722e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="265cb39c-7109-435c-af5d-13dc21a2db6b" xmlns:ns3="62b85a0e-09bb-4b0f-bd28-e34020cdc070" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a896a53711a7280dbf4746c89d8ce56" ns2:_="" ns3:_="">
     <xsd:import namespace="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
@@ -4243,18 +4239,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Archive xmlns="265cb39c-7109-435c-af5d-13dc21a2db6b">false</Archive>
-    <TaxCatchAll xmlns="62b85a0e-09bb-4b0f-bd28-e34020cdc070" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4265,6 +4249,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A4A9B6-E6B8-436A-87CA-CAFC781DAE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
+    <ds:schemaRef ds:uri="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE8051E-BAFB-4F2B-9FC4-48DEF7DBE85D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4283,17 +4278,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A4A9B6-E6B8-436A-87CA-CAFC781DAE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="265cb39c-7109-435c-af5d-13dc21a2db6b"/>
-    <ds:schemaRef ds:uri="62b85a0e-09bb-4b0f-bd28-e34020cdc070"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B94408-8787-4A72-912D-43B8D76E4179}">
   <ds:schemaRefs>
